--- a/biology/Zoologie/Curculionoidea/Curculionoidea.xlsx
+++ b/biology/Zoologie/Curculionoidea/Curculionoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Curculionoidea (les curculionoïdes en français) sont une super-famille d'insectes de l'ordre des coléoptères[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Curculionoidea (les curculionoïdes en français) sont une super-famille d'insectes de l'ordre des coléoptères.
 La super-famille des Curculionoideae a été définie par Pierre André Latreille (1762-1833) en 1802.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthribidae Billberg, 1820
 Apionidae Schönherr, 1823 - apions
@@ -542,7 +556,7 @@
 Praelateriidae Dolin, 1973
 Ulyanidae Zherikhin, 1993
 Classification de Zarazaga &amp; Lyal 1999
-Une phylogénie des Curculionoidea basée sur la comparaison de l'ADN ribosomal 18S et les données morphologiques menées par Marvaldi et al en 2002 est suggérée ci-dessous[2] :
+Une phylogénie des Curculionoidea basée sur la comparaison de l'ADN ribosomal 18S et les données morphologiques menées par Marvaldi et al en 2002 est suggérée ci-dessous :
 </t>
         </is>
       </c>
@@ -571,7 +585,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rhynchophora Latreille, 1817</t>
         </is>
